--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Mst1-Mst1r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Mst1-Mst1r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2812876666666667</v>
+        <v>0.525674</v>
       </c>
       <c r="H2">
-        <v>0.843863</v>
+        <v>1.577022</v>
       </c>
       <c r="I2">
-        <v>0.1007085471400275</v>
+        <v>0.1511327611388179</v>
       </c>
       <c r="J2">
-        <v>0.1007085471400276</v>
+        <v>0.1511327611388179</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>2.127030666666667</v>
+        <v>0.07841666666666666</v>
       </c>
       <c r="N2">
-        <v>6.381092000000001</v>
+        <v>0.23525</v>
       </c>
       <c r="O2">
-        <v>0.8897884408930886</v>
+        <v>0.03064326897313331</v>
       </c>
       <c r="P2">
-        <v>0.8897884408930888</v>
+        <v>0.0306432689731333</v>
       </c>
       <c r="Q2">
-        <v>0.5983074931551111</v>
+        <v>0.04122160283333333</v>
       </c>
       <c r="R2">
-        <v>5.384767438396</v>
+        <v>0.3709944254999999</v>
       </c>
       <c r="S2">
-        <v>0.08960930114433321</v>
+        <v>0.004631201850229105</v>
       </c>
       <c r="T2">
-        <v>0.08960930114433326</v>
+        <v>0.004631201850229104</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,25 +593,25 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2812876666666667</v>
+        <v>0.525674</v>
       </c>
       <c r="H3">
-        <v>0.843863</v>
+        <v>1.577022</v>
       </c>
       <c r="I3">
-        <v>0.1007085471400275</v>
+        <v>0.1511327611388179</v>
       </c>
       <c r="J3">
-        <v>0.1007085471400276</v>
+        <v>0.1511327611388179</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.106786</v>
+        <v>2.127030666666667</v>
       </c>
       <c r="N3">
-        <v>0.320358</v>
+        <v>6.381092000000001</v>
       </c>
       <c r="O3">
-        <v>0.04467116997335693</v>
+        <v>0.8311903017994015</v>
       </c>
       <c r="P3">
-        <v>0.04467116997335693</v>
+        <v>0.8311903017994015</v>
       </c>
       <c r="Q3">
-        <v>0.03003758477266667</v>
+        <v>1.118124718669333</v>
       </c>
       <c r="R3">
-        <v>0.270338262954</v>
+        <v>10.063122468024</v>
       </c>
       <c r="S3">
-        <v>0.004498768627061998</v>
+        <v>0.1256200853427508</v>
       </c>
       <c r="T3">
-        <v>0.004498768627062</v>
+        <v>0.1256200853427508</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2812876666666667</v>
+        <v>0.525674</v>
       </c>
       <c r="H4">
-        <v>0.843863</v>
+        <v>1.577022</v>
       </c>
       <c r="I4">
-        <v>0.1007085471400275</v>
+        <v>0.1511327611388179</v>
       </c>
       <c r="J4">
-        <v>0.1007085471400276</v>
+        <v>0.1511327611388179</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1566736666666667</v>
+        <v>0.1783906666666667</v>
       </c>
       <c r="N4">
-        <v>0.470021</v>
+        <v>0.535172</v>
       </c>
       <c r="O4">
-        <v>0.06554038913355431</v>
+        <v>0.06971060379549288</v>
       </c>
       <c r="P4">
-        <v>0.06554038913355432</v>
+        <v>0.06971060379549288</v>
       </c>
       <c r="Q4">
-        <v>0.04407037012477778</v>
+        <v>0.09377533530933332</v>
       </c>
       <c r="R4">
-        <v>0.396633331123</v>
+        <v>0.8439780177839999</v>
       </c>
       <c r="S4">
-        <v>0.006600477368632302</v>
+        <v>0.01053555603226699</v>
       </c>
       <c r="T4">
-        <v>0.006600477368632306</v>
+        <v>0.01053555603226699</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.414758666666666</v>
+        <v>0.525674</v>
       </c>
       <c r="H5">
-        <v>4.244275999999999</v>
+        <v>1.577022</v>
       </c>
       <c r="I5">
-        <v>0.506521638727243</v>
+        <v>0.1511327611388179</v>
       </c>
       <c r="J5">
-        <v>0.506521638727243</v>
+        <v>0.1511327611388179</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,33 +744,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.127030666666667</v>
+        <v>0.08970066666666666</v>
       </c>
       <c r="N5">
-        <v>6.381092000000001</v>
+        <v>0.269102</v>
       </c>
       <c r="O5">
-        <v>0.8897884408930886</v>
+        <v>0.03505277350566682</v>
       </c>
       <c r="P5">
-        <v>0.8897884408930888</v>
+        <v>0.03505277350566682</v>
       </c>
       <c r="Q5">
-        <v>3.009235069932444</v>
+        <v>0.04715330824933333</v>
       </c>
       <c r="R5">
-        <v>27.083115629392</v>
+        <v>0.424379774244</v>
       </c>
       <c r="S5">
-        <v>0.4506970992017258</v>
+        <v>0.005297622445485027</v>
       </c>
       <c r="T5">
-        <v>0.450697099201726</v>
+        <v>0.005297622445485027</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.414758666666666</v>
+        <v>0.525674</v>
       </c>
       <c r="H6">
-        <v>4.244275999999999</v>
+        <v>1.577022</v>
       </c>
       <c r="I6">
-        <v>0.506521638727243</v>
+        <v>0.1511327611388179</v>
       </c>
       <c r="J6">
-        <v>0.506521638727243</v>
+        <v>0.1511327611388179</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.106786</v>
+        <v>0.08547900000000001</v>
       </c>
       <c r="N6">
-        <v>0.320358</v>
+        <v>0.256437</v>
       </c>
       <c r="O6">
-        <v>0.04467116997335693</v>
+        <v>0.03340305192630558</v>
       </c>
       <c r="P6">
-        <v>0.04467116997335693</v>
+        <v>0.03340305192630558</v>
       </c>
       <c r="Q6">
-        <v>0.1510764189786667</v>
+        <v>0.044934087846</v>
       </c>
       <c r="R6">
-        <v>1.359687770808</v>
+        <v>0.404406790614</v>
       </c>
       <c r="S6">
-        <v>0.02262691421876796</v>
+        <v>0.005048295468085872</v>
       </c>
       <c r="T6">
-        <v>0.02262691421876796</v>
+        <v>0.00504829546808587</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -850,51 +850,51 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.414758666666666</v>
+        <v>1.414758666666667</v>
       </c>
       <c r="H7">
-        <v>4.244275999999999</v>
+        <v>4.244276</v>
       </c>
       <c r="I7">
-        <v>0.506521638727243</v>
+        <v>0.4067471163466441</v>
       </c>
       <c r="J7">
-        <v>0.506521638727243</v>
+        <v>0.4067471163466441</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.1566736666666667</v>
+        <v>0.07841666666666666</v>
       </c>
       <c r="N7">
-        <v>0.470021</v>
+        <v>0.23525</v>
       </c>
       <c r="O7">
-        <v>0.06554038913355431</v>
+        <v>0.03064326897313331</v>
       </c>
       <c r="P7">
-        <v>0.06554038913355432</v>
+        <v>0.0306432689731333</v>
       </c>
       <c r="Q7">
-        <v>0.2216554277551111</v>
+        <v>0.1109406587777778</v>
       </c>
       <c r="R7">
-        <v>1.994898849795999</v>
+        <v>0.998465929</v>
       </c>
       <c r="S7">
-        <v>0.03319762530674912</v>
+        <v>0.01246406129025656</v>
       </c>
       <c r="T7">
-        <v>0.03319762530674913</v>
+        <v>0.01246406129025656</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.4636856666666667</v>
+        <v>1.414758666666667</v>
       </c>
       <c r="H8">
-        <v>1.391057</v>
+        <v>4.244276</v>
       </c>
       <c r="I8">
-        <v>0.1660119349455602</v>
+        <v>0.4067471163466441</v>
       </c>
       <c r="J8">
-        <v>0.1660119349455602</v>
+        <v>0.4067471163466441</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,37 +936,37 @@
         <v>6.381092000000001</v>
       </c>
       <c r="O8">
-        <v>0.8897884408930886</v>
+        <v>0.8311903017994015</v>
       </c>
       <c r="P8">
-        <v>0.8897884408930888</v>
+        <v>0.8311903017994015</v>
       </c>
       <c r="Q8">
-        <v>0.9862736326937778</v>
+        <v>3.009235069932445</v>
       </c>
       <c r="R8">
-        <v>8.876462694244001</v>
+        <v>27.083115629392</v>
       </c>
       <c r="S8">
-        <v>0.1477155007648549</v>
+        <v>0.3380842583922034</v>
       </c>
       <c r="T8">
-        <v>0.1477155007648549</v>
+        <v>0.3380842583922034</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
       <c r="E9">
         <v>3</v>
       </c>
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.4636856666666667</v>
+        <v>1.414758666666667</v>
       </c>
       <c r="H9">
-        <v>1.391057</v>
+        <v>4.244276</v>
       </c>
       <c r="I9">
-        <v>0.1660119349455602</v>
+        <v>0.4067471163466441</v>
       </c>
       <c r="J9">
-        <v>0.1660119349455602</v>
+        <v>0.4067471163466441</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,33 +992,33 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.106786</v>
+        <v>0.1783906666666667</v>
       </c>
       <c r="N9">
-        <v>0.320358</v>
+        <v>0.535172</v>
       </c>
       <c r="O9">
-        <v>0.04467116997335693</v>
+        <v>0.06971060379549288</v>
       </c>
       <c r="P9">
-        <v>0.04467116997335693</v>
+        <v>0.06971060379549288</v>
       </c>
       <c r="Q9">
-        <v>0.04951513760066667</v>
+        <v>0.2523797417191112</v>
       </c>
       <c r="R9">
-        <v>0.445636238406</v>
+        <v>2.271417675472</v>
       </c>
       <c r="S9">
-        <v>0.007415947363558993</v>
+        <v>0.02835458707260015</v>
       </c>
       <c r="T9">
-        <v>0.007415947363558995</v>
+        <v>0.02835458707260015</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,51 +1036,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.4636856666666667</v>
+        <v>1.414758666666667</v>
       </c>
       <c r="H10">
-        <v>1.391057</v>
+        <v>4.244276</v>
       </c>
       <c r="I10">
-        <v>0.1660119349455602</v>
+        <v>0.4067471163466441</v>
       </c>
       <c r="J10">
-        <v>0.1660119349455602</v>
+        <v>0.4067471163466441</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1566736666666667</v>
+        <v>0.08970066666666666</v>
       </c>
       <c r="N10">
-        <v>0.470021</v>
+        <v>0.269102</v>
       </c>
       <c r="O10">
-        <v>0.06554038913355431</v>
+        <v>0.03505277350566682</v>
       </c>
       <c r="P10">
-        <v>0.06554038913355432</v>
+        <v>0.03505277350566682</v>
       </c>
       <c r="Q10">
-        <v>0.07264733357744443</v>
+        <v>0.1269047955724444</v>
       </c>
       <c r="R10">
-        <v>0.6538260021969999</v>
+        <v>1.142143160152</v>
       </c>
       <c r="S10">
-        <v>0.01088048681714632</v>
+        <v>0.01425761454338203</v>
       </c>
       <c r="T10">
-        <v>0.01088048681714632</v>
+        <v>0.01425761454338203</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,51 +1098,51 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.083345</v>
+        <v>1.414758666666667</v>
       </c>
       <c r="H11">
-        <v>0.250035</v>
+        <v>4.244276</v>
       </c>
       <c r="I11">
-        <v>0.02983975074645622</v>
+        <v>0.4067471163466441</v>
       </c>
       <c r="J11">
-        <v>0.02983975074645622</v>
+        <v>0.4067471163466441</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>2.127030666666667</v>
+        <v>0.08547900000000001</v>
       </c>
       <c r="N11">
-        <v>6.381092000000001</v>
+        <v>0.256437</v>
       </c>
       <c r="O11">
-        <v>0.8897884408930886</v>
+        <v>0.03340305192630558</v>
       </c>
       <c r="P11">
-        <v>0.8897884408930888</v>
+        <v>0.03340305192630558</v>
       </c>
       <c r="Q11">
-        <v>0.1772773709133333</v>
+        <v>0.120932156068</v>
       </c>
       <c r="R11">
-        <v>1.59549633822</v>
+        <v>1.088389404612</v>
       </c>
       <c r="S11">
-        <v>0.02655106529332766</v>
+        <v>0.01358659504820201</v>
       </c>
       <c r="T11">
-        <v>0.02655106529332767</v>
+        <v>0.01358659504820201</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,51 +1160,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.083345</v>
+        <v>0.4811363333333333</v>
       </c>
       <c r="H12">
-        <v>0.250035</v>
+        <v>1.443409</v>
       </c>
       <c r="I12">
-        <v>0.02983975074645622</v>
+        <v>0.1383280560592179</v>
       </c>
       <c r="J12">
-        <v>0.02983975074645622</v>
+        <v>0.1383280560592179</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.106786</v>
+        <v>0.07841666666666666</v>
       </c>
       <c r="N12">
-        <v>0.320358</v>
+        <v>0.23525</v>
       </c>
       <c r="O12">
-        <v>0.04467116997335693</v>
+        <v>0.03064326897313331</v>
       </c>
       <c r="P12">
-        <v>0.04467116997335693</v>
+        <v>0.0306432689731333</v>
       </c>
       <c r="Q12">
-        <v>0.00890007917</v>
+        <v>0.03772910747222222</v>
       </c>
       <c r="R12">
-        <v>0.08010071253000001</v>
+        <v>0.33956196725</v>
       </c>
       <c r="S12">
-        <v>0.00133297657755755</v>
+        <v>0.004238823828353278</v>
       </c>
       <c r="T12">
-        <v>0.00133297657755755</v>
+        <v>0.004238823828353277</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,51 +1222,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.083345</v>
+        <v>0.4811363333333333</v>
       </c>
       <c r="H13">
-        <v>0.250035</v>
+        <v>1.443409</v>
       </c>
       <c r="I13">
-        <v>0.02983975074645622</v>
+        <v>0.1383280560592179</v>
       </c>
       <c r="J13">
-        <v>0.02983975074645622</v>
+        <v>0.1383280560592179</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.1566736666666667</v>
+        <v>2.127030666666667</v>
       </c>
       <c r="N13">
-        <v>0.470021</v>
+        <v>6.381092000000001</v>
       </c>
       <c r="O13">
-        <v>0.06554038913355431</v>
+        <v>0.8311903017994015</v>
       </c>
       <c r="P13">
-        <v>0.06554038913355432</v>
+        <v>0.8311903017994015</v>
       </c>
       <c r="Q13">
-        <v>0.01305796674833333</v>
+        <v>1.023391735847555</v>
       </c>
       <c r="R13">
-        <v>0.117521700735</v>
+        <v>9.210525622628001</v>
       </c>
       <c r="S13">
-        <v>0.001955708875571008</v>
+        <v>0.1149769386631859</v>
       </c>
       <c r="T13">
-        <v>0.001955708875571009</v>
+        <v>0.1149769386631859</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,7 +1275,7 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.5500093333333335</v>
+        <v>0.4811363333333333</v>
       </c>
       <c r="H14">
-        <v>1.650028</v>
+        <v>1.443409</v>
       </c>
       <c r="I14">
-        <v>0.196918128440713</v>
+        <v>0.1383280560592179</v>
       </c>
       <c r="J14">
-        <v>0.196918128440713</v>
+        <v>0.1383280560592179</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,33 +1302,33 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.127030666666667</v>
+        <v>0.1783906666666667</v>
       </c>
       <c r="N14">
-        <v>6.381092000000001</v>
+        <v>0.535172</v>
       </c>
       <c r="O14">
-        <v>0.8897884408930886</v>
+        <v>0.06971060379549288</v>
       </c>
       <c r="P14">
-        <v>0.8897884408930888</v>
+        <v>0.06971060379549288</v>
       </c>
       <c r="Q14">
-        <v>1.169886718952889</v>
+        <v>0.08583023126088889</v>
       </c>
       <c r="R14">
-        <v>10.528980470576</v>
+        <v>0.7724720813479999</v>
       </c>
       <c r="S14">
-        <v>0.175215474488847</v>
+        <v>0.009642932309744867</v>
       </c>
       <c r="T14">
-        <v>0.175215474488847</v>
+        <v>0.009642932309744867</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.5500093333333335</v>
+        <v>0.4811363333333333</v>
       </c>
       <c r="H15">
-        <v>1.650028</v>
+        <v>1.443409</v>
       </c>
       <c r="I15">
-        <v>0.196918128440713</v>
+        <v>0.1383280560592179</v>
       </c>
       <c r="J15">
-        <v>0.196918128440713</v>
+        <v>0.1383280560592179</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,33 +1364,33 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.106786</v>
+        <v>0.08970066666666666</v>
       </c>
       <c r="N15">
-        <v>0.320358</v>
+        <v>0.269102</v>
       </c>
       <c r="O15">
-        <v>0.04467116997335693</v>
+        <v>0.03505277350566682</v>
       </c>
       <c r="P15">
-        <v>0.04467116997335693</v>
+        <v>0.03505277350566682</v>
       </c>
       <c r="Q15">
-        <v>0.05873329666933335</v>
+        <v>0.04315824985755556</v>
       </c>
       <c r="R15">
-        <v>0.5285996700240001</v>
+        <v>0.388424248718</v>
       </c>
       <c r="S15">
-        <v>0.00879656318641042</v>
+        <v>0.004848782018522949</v>
       </c>
       <c r="T15">
-        <v>0.008796563186410422</v>
+        <v>0.004848782018522949</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.5500093333333335</v>
+        <v>0.4811363333333333</v>
       </c>
       <c r="H16">
-        <v>1.650028</v>
+        <v>1.443409</v>
       </c>
       <c r="I16">
-        <v>0.196918128440713</v>
+        <v>0.1383280560592179</v>
       </c>
       <c r="J16">
-        <v>0.196918128440713</v>
+        <v>0.1383280560592179</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1426,28 +1426,648 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.1566736666666667</v>
+        <v>0.08547900000000001</v>
       </c>
       <c r="N16">
-        <v>0.470021</v>
+        <v>0.256437</v>
       </c>
       <c r="O16">
-        <v>0.06554038913355431</v>
+        <v>0.03340305192630558</v>
       </c>
       <c r="P16">
-        <v>0.06554038913355432</v>
+        <v>0.03340305192630558</v>
       </c>
       <c r="Q16">
-        <v>0.08617197895422224</v>
+        <v>0.04112705263700001</v>
       </c>
       <c r="R16">
-        <v>0.775547810588</v>
+        <v>0.3701434737330001</v>
       </c>
       <c r="S16">
-        <v>0.01290609076545556</v>
+        <v>0.004620579239410966</v>
       </c>
       <c r="T16">
-        <v>0.01290609076545556</v>
+        <v>0.004620579239410965</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.1909176666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.5727530000000001</v>
+      </c>
+      <c r="I17">
+        <v>0.05488936891212764</v>
+      </c>
+      <c r="J17">
+        <v>0.05488936891212764</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.07841666666666666</v>
+      </c>
+      <c r="N17">
+        <v>0.23525</v>
+      </c>
+      <c r="O17">
+        <v>0.03064326897313331</v>
+      </c>
+      <c r="P17">
+        <v>0.0306432689731333</v>
+      </c>
+      <c r="Q17">
+        <v>0.01497112702777778</v>
+      </c>
+      <c r="R17">
+        <v>0.13474014325</v>
+      </c>
+      <c r="S17">
+        <v>0.001681989695339869</v>
+      </c>
+      <c r="T17">
+        <v>0.001681989695339869</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.1909176666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.5727530000000001</v>
+      </c>
+      <c r="I18">
+        <v>0.05488936891212764</v>
+      </c>
+      <c r="J18">
+        <v>0.05488936891212764</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.127030666666667</v>
+      </c>
+      <c r="N18">
+        <v>6.381092000000001</v>
+      </c>
+      <c r="O18">
+        <v>0.8311903017994015</v>
+      </c>
+      <c r="P18">
+        <v>0.8311903017994015</v>
+      </c>
+      <c r="Q18">
+        <v>0.4060877318084445</v>
+      </c>
+      <c r="R18">
+        <v>3.654789586276001</v>
+      </c>
+      <c r="S18">
+        <v>0.04562351111165006</v>
+      </c>
+      <c r="T18">
+        <v>0.04562351111165006</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.1909176666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.5727530000000001</v>
+      </c>
+      <c r="I19">
+        <v>0.05488936891212764</v>
+      </c>
+      <c r="J19">
+        <v>0.05488936891212764</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.1783906666666667</v>
+      </c>
+      <c r="N19">
+        <v>0.535172</v>
+      </c>
+      <c r="O19">
+        <v>0.06971060379549288</v>
+      </c>
+      <c r="P19">
+        <v>0.06971060379549288</v>
+      </c>
+      <c r="Q19">
+        <v>0.03405792983511111</v>
+      </c>
+      <c r="R19">
+        <v>0.306521368516</v>
+      </c>
+      <c r="S19">
+        <v>0.003826371048817973</v>
+      </c>
+      <c r="T19">
+        <v>0.003826371048817973</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.1909176666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.5727530000000001</v>
+      </c>
+      <c r="I20">
+        <v>0.05488936891212764</v>
+      </c>
+      <c r="J20">
+        <v>0.05488936891212764</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.08970066666666666</v>
+      </c>
+      <c r="N20">
+        <v>0.269102</v>
+      </c>
+      <c r="O20">
+        <v>0.03505277350566682</v>
+      </c>
+      <c r="P20">
+        <v>0.03505277350566682</v>
+      </c>
+      <c r="Q20">
+        <v>0.01712544197844445</v>
+      </c>
+      <c r="R20">
+        <v>0.154128977806</v>
+      </c>
+      <c r="S20">
+        <v>0.0019240246163458</v>
+      </c>
+      <c r="T20">
+        <v>0.0019240246163458</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.1909176666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.5727530000000001</v>
+      </c>
+      <c r="I21">
+        <v>0.05488936891212764</v>
+      </c>
+      <c r="J21">
+        <v>0.05488936891212764</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.08547900000000001</v>
+      </c>
+      <c r="N21">
+        <v>0.256437</v>
+      </c>
+      <c r="O21">
+        <v>0.03340305192630558</v>
+      </c>
+      <c r="P21">
+        <v>0.03340305192630558</v>
+      </c>
+      <c r="Q21">
+        <v>0.01631945122900001</v>
+      </c>
+      <c r="R21">
+        <v>0.146875061061</v>
+      </c>
+      <c r="S21">
+        <v>0.001833472439973943</v>
+      </c>
+      <c r="T21">
+        <v>0.001833472439973943</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.8657400000000001</v>
+      </c>
+      <c r="H22">
+        <v>2.59722</v>
+      </c>
+      <c r="I22">
+        <v>0.2489026975431925</v>
+      </c>
+      <c r="J22">
+        <v>0.2489026975431925</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.07841666666666666</v>
+      </c>
+      <c r="N22">
+        <v>0.23525</v>
+      </c>
+      <c r="O22">
+        <v>0.03064326897313331</v>
+      </c>
+      <c r="P22">
+        <v>0.0306432689731333</v>
+      </c>
+      <c r="Q22">
+        <v>0.06788844500000001</v>
+      </c>
+      <c r="R22">
+        <v>0.610996005</v>
+      </c>
+      <c r="S22">
+        <v>0.007627192308954495</v>
+      </c>
+      <c r="T22">
+        <v>0.007627192308954494</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.8657400000000001</v>
+      </c>
+      <c r="H23">
+        <v>2.59722</v>
+      </c>
+      <c r="I23">
+        <v>0.2489026975431925</v>
+      </c>
+      <c r="J23">
+        <v>0.2489026975431925</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2.127030666666667</v>
+      </c>
+      <c r="N23">
+        <v>6.381092000000001</v>
+      </c>
+      <c r="O23">
+        <v>0.8311903017994015</v>
+      </c>
+      <c r="P23">
+        <v>0.8311903017994015</v>
+      </c>
+      <c r="Q23">
+        <v>1.84145552936</v>
+      </c>
+      <c r="R23">
+        <v>16.57309976424</v>
+      </c>
+      <c r="S23">
+        <v>0.2068855082896113</v>
+      </c>
+      <c r="T23">
+        <v>0.2068855082896113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.8657400000000001</v>
+      </c>
+      <c r="H24">
+        <v>2.59722</v>
+      </c>
+      <c r="I24">
+        <v>0.2489026975431925</v>
+      </c>
+      <c r="J24">
+        <v>0.2489026975431925</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.1783906666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.535172</v>
+      </c>
+      <c r="O24">
+        <v>0.06971060379549288</v>
+      </c>
+      <c r="P24">
+        <v>0.06971060379549288</v>
+      </c>
+      <c r="Q24">
+        <v>0.15443993576</v>
+      </c>
+      <c r="R24">
+        <v>1.38995942184</v>
+      </c>
+      <c r="S24">
+        <v>0.01735115733206289</v>
+      </c>
+      <c r="T24">
+        <v>0.01735115733206289</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.8657400000000001</v>
+      </c>
+      <c r="H25">
+        <v>2.59722</v>
+      </c>
+      <c r="I25">
+        <v>0.2489026975431925</v>
+      </c>
+      <c r="J25">
+        <v>0.2489026975431925</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.08970066666666666</v>
+      </c>
+      <c r="N25">
+        <v>0.269102</v>
+      </c>
+      <c r="O25">
+        <v>0.03505277350566682</v>
+      </c>
+      <c r="P25">
+        <v>0.03505277350566682</v>
+      </c>
+      <c r="Q25">
+        <v>0.07765745516</v>
+      </c>
+      <c r="R25">
+        <v>0.69891709644</v>
+      </c>
+      <c r="S25">
+        <v>0.008724729881931022</v>
+      </c>
+      <c r="T25">
+        <v>0.008724729881931022</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.8657400000000001</v>
+      </c>
+      <c r="H26">
+        <v>2.59722</v>
+      </c>
+      <c r="I26">
+        <v>0.2489026975431925</v>
+      </c>
+      <c r="J26">
+        <v>0.2489026975431925</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.08547900000000001</v>
+      </c>
+      <c r="N26">
+        <v>0.256437</v>
+      </c>
+      <c r="O26">
+        <v>0.03340305192630558</v>
+      </c>
+      <c r="P26">
+        <v>0.03340305192630558</v>
+      </c>
+      <c r="Q26">
+        <v>0.07400258946000002</v>
+      </c>
+      <c r="R26">
+        <v>0.6660233051400001</v>
+      </c>
+      <c r="S26">
+        <v>0.008314109730632794</v>
+      </c>
+      <c r="T26">
+        <v>0.008314109730632792</v>
       </c>
     </row>
   </sheetData>
